--- a/🚀 30_Day_Core_Python_Tracking_Sheet.xlsx
+++ b/🚀 30_Day_Core_Python_Tracking_Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Day</t>
   </si>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,12 +152,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -189,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -203,12 +197,6 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -216,9 +204,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -529,12 +514,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="42.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="42.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -590,7 +575,7 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -610,7 +595,7 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -630,7 +615,7 @@
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -650,7 +635,7 @@
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -670,7 +655,7 @@
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -690,7 +675,7 @@
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -710,7 +695,7 @@
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -730,7 +715,7 @@
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -744,10 +729,18 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3">
@@ -756,10 +749,18 @@
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3">
@@ -768,10 +769,18 @@
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3">
@@ -780,10 +789,18 @@
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3">
@@ -794,7 +811,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -806,7 +823,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -818,7 +835,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -830,7 +847,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -842,7 +859,7 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -854,7 +871,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -866,7 +883,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -878,7 +895,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -890,7 +907,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -902,7 +919,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -914,7 +931,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -926,7 +943,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -938,7 +955,7 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -950,7 +967,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -962,7 +979,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
@@ -974,7 +991,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
@@ -986,7 +1003,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
   </sheetData>
